--- a/Code/Results/Cases/Case_4_104/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_104/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9755055144130438</v>
+        <v>0.4304097817472439</v>
       </c>
       <c r="C2">
-        <v>0.2034609051509619</v>
+        <v>0.09160879547007994</v>
       </c>
       <c r="D2">
-        <v>0.5498365394650762</v>
+        <v>0.6619293646000415</v>
       </c>
       <c r="E2">
-        <v>0.2452821889560965</v>
+        <v>0.2699344019209917</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008227123261012893</v>
+        <v>0.002501922895753041</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4883350286876542</v>
+        <v>0.9731041415514596</v>
       </c>
       <c r="J2">
-        <v>0.1451621938368177</v>
+        <v>0.1404529117855091</v>
       </c>
       <c r="K2">
-        <v>1.13813811365759</v>
+        <v>0.5046618618806065</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.681390152056196</v>
+        <v>4.988518476323748</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8467780392276154</v>
+        <v>0.3938766318304943</v>
       </c>
       <c r="C3">
-        <v>0.176438622121097</v>
+        <v>0.0841942546234975</v>
       </c>
       <c r="D3">
-        <v>0.4963320977045669</v>
+        <v>0.6518000325876869</v>
       </c>
       <c r="E3">
-        <v>0.2201264514716925</v>
+        <v>0.2649531102901932</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008273862415061967</v>
+        <v>0.002504926366483988</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4897297659471676</v>
+        <v>0.9797275938363192</v>
       </c>
       <c r="J3">
-        <v>0.1293018706278275</v>
+        <v>0.1371430818120984</v>
       </c>
       <c r="K3">
-        <v>0.9877308238054638</v>
+        <v>0.4623117716852505</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.625896144648095</v>
+        <v>5.007478707090172</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7680191616766479</v>
+        <v>0.3715538297486205</v>
       </c>
       <c r="C4">
-        <v>0.1599385658178392</v>
+        <v>0.07966748471220342</v>
       </c>
       <c r="D4">
-        <v>0.4641618095095623</v>
+        <v>0.6459174939957109</v>
       </c>
       <c r="E4">
-        <v>0.2049923578781261</v>
+        <v>0.2620383396620625</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008303470402637761</v>
+        <v>0.002506868784855129</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4915619124815898</v>
+        <v>0.9842666384750558</v>
       </c>
       <c r="J4">
-        <v>0.1197534585073114</v>
+        <v>0.1351900985987129</v>
       </c>
       <c r="K4">
-        <v>0.8957482005245083</v>
+        <v>0.4364395291334517</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.597080831725464</v>
+        <v>5.021647956366991</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.735979598991662</v>
+        <v>0.3624849130641792</v>
       </c>
       <c r="C5">
-        <v>0.1532335053968268</v>
+        <v>0.0778293269259791</v>
       </c>
       <c r="D5">
-        <v>0.4512104893975959</v>
+        <v>0.6436051109912739</v>
       </c>
       <c r="E5">
-        <v>0.1988970982653839</v>
+        <v>0.2608867114640745</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008315769785507854</v>
+        <v>0.002507685123758067</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.492543340864362</v>
+        <v>0.9862350214723676</v>
       </c>
       <c r="J5">
-        <v>0.1159059713359198</v>
+        <v>0.1344141646554107</v>
       </c>
       <c r="K5">
-        <v>0.8583381137484309</v>
+        <v>0.4259297850132953</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.58659532473402</v>
+        <v>5.028057347850762</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7306623697671171</v>
+        <v>0.360980719800807</v>
       </c>
       <c r="C6">
-        <v>0.1521211552269364</v>
+        <v>0.07752449867093958</v>
       </c>
       <c r="D6">
-        <v>0.4490691274840231</v>
+        <v>0.6432262656077512</v>
       </c>
       <c r="E6">
-        <v>0.1978891552018496</v>
+        <v>0.2606976691631075</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008317826359292926</v>
+        <v>0.002507822175736469</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4927201909043042</v>
+        <v>0.9865690366022797</v>
       </c>
       <c r="J6">
-        <v>0.1152696128242141</v>
+        <v>0.1342865244243256</v>
       </c>
       <c r="K6">
-        <v>0.8521301092435465</v>
+        <v>0.4241866821832332</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.584928293085198</v>
+        <v>5.029159985438696</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7675868603078584</v>
+        <v>0.3714314099493379</v>
       </c>
       <c r="C7">
-        <v>0.1598480681033152</v>
+        <v>0.07964266813225152</v>
       </c>
       <c r="D7">
-        <v>0.4639865191259105</v>
+        <v>0.6458859649338251</v>
       </c>
       <c r="E7">
-        <v>0.2049098716576907</v>
+        <v>0.2620226619530186</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008303635322884437</v>
+        <v>0.002506879693858781</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4915742111367152</v>
+        <v>0.9842927043028382</v>
       </c>
       <c r="J7">
-        <v>0.1197013988923175</v>
+        <v>0.135179553427939</v>
       </c>
       <c r="K7">
-        <v>0.8952434013124559</v>
+        <v>0.4362976551376505</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.596934414675388</v>
+        <v>5.021731823706887</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9310526400917922</v>
+        <v>0.4177908620065125</v>
       </c>
       <c r="C8">
-        <v>0.1941219493844955</v>
+        <v>0.08904693868323932</v>
       </c>
       <c r="D8">
-        <v>0.5312386095198178</v>
+        <v>0.6583668876826607</v>
       </c>
       <c r="E8">
-        <v>0.2365398632983826</v>
+        <v>0.268187020837523</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008243053195220782</v>
+        <v>0.002502938141145274</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.488606877423102</v>
+        <v>0.9752898638479159</v>
       </c>
       <c r="J8">
-        <v>0.1396515445082258</v>
+        <v>0.139295223673173</v>
       </c>
       <c r="K8">
-        <v>1.086189454895987</v>
+        <v>0.4900326667066111</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.661124018614061</v>
+        <v>4.994531188641957</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.254580942396672</v>
+        <v>0.5095481846159089</v>
       </c>
       <c r="C9">
-        <v>0.2622685155800184</v>
+        <v>0.1076919841284507</v>
       </c>
       <c r="D9">
-        <v>0.669163834913121</v>
+        <v>0.6855137895918233</v>
       </c>
       <c r="E9">
-        <v>0.3013477870007577</v>
+        <v>0.2814163662761686</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000813122802122701</v>
+        <v>0.002495985080678752</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4910372405507033</v>
+        <v>0.9613850768520322</v>
       </c>
       <c r="J9">
-        <v>0.1804837273958668</v>
+        <v>0.1479960157967</v>
       </c>
       <c r="K9">
-        <v>1.464489557958927</v>
+        <v>0.5964293871240613</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.831866976083262</v>
+        <v>4.961262368460268</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.495229932020379</v>
+        <v>0.5774642032066311</v>
       </c>
       <c r="C10">
-        <v>0.3132226472516777</v>
+        <v>0.1215141631748224</v>
       </c>
       <c r="D10">
-        <v>0.7751388481549384</v>
+        <v>0.7070887049854377</v>
       </c>
       <c r="E10">
-        <v>0.3511232456976359</v>
+        <v>0.2918335436431079</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000805295976346087</v>
+        <v>0.002491345080763991</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4986073961915096</v>
+        <v>0.9534596805762874</v>
       </c>
       <c r="J10">
-        <v>0.2118320076507985</v>
+        <v>0.154774854308954</v>
       </c>
       <c r="K10">
-        <v>1.746201899495304</v>
+        <v>0.6752093183136196</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.989366935800234</v>
+        <v>4.949083903274925</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.605626153559172</v>
+        <v>0.6084674284220171</v>
       </c>
       <c r="C11">
-        <v>0.3366730692162321</v>
+        <v>0.1278291295677718</v>
       </c>
       <c r="D11">
-        <v>0.8245893606781749</v>
+        <v>0.7172581332750667</v>
       </c>
       <c r="E11">
-        <v>0.3743495840089537</v>
+        <v>0.296724576167442</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008018111471793159</v>
+        <v>0.002489334904307751</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5034900298698872</v>
+        <v>0.9503525808960589</v>
       </c>
       <c r="J11">
-        <v>0.2264605354512241</v>
+        <v>0.1579431740546937</v>
       </c>
       <c r="K11">
-        <v>1.875527094065262</v>
+        <v>0.7111786567213016</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.069117430427752</v>
+        <v>4.946213117703991</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.647587994383258</v>
+        <v>0.6202226907077488</v>
       </c>
       <c r="C12">
-        <v>0.3455991391868167</v>
+        <v>0.1302243239365168</v>
       </c>
       <c r="D12">
-        <v>0.8435145151708241</v>
+        <v>0.7211600387744852</v>
       </c>
       <c r="E12">
-        <v>0.3832388781520351</v>
+        <v>0.2985985819411283</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008005016396364365</v>
+        <v>0.002488588088363201</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5055625357324658</v>
+        <v>0.9492477253980596</v>
       </c>
       <c r="J12">
-        <v>0.2320596550437273</v>
+        <v>0.1591551249500895</v>
       </c>
       <c r="K12">
-        <v>1.924698974224412</v>
+        <v>0.7248179172146649</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.100585843720097</v>
+        <v>4.945510311106545</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.638543360175305</v>
+        <v>0.6176903248359338</v>
       </c>
       <c r="C13">
-        <v>0.3436745918507711</v>
+        <v>0.1297083054640211</v>
       </c>
       <c r="D13">
-        <v>0.8394294308932615</v>
+        <v>0.7203174280816427</v>
       </c>
       <c r="E13">
-        <v>0.381320059273051</v>
+        <v>0.2981940083853161</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008007832279804245</v>
+        <v>0.002488748289622698</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5051059617508997</v>
+        <v>0.9494824838185991</v>
       </c>
       <c r="J13">
-        <v>0.2308510203532137</v>
+        <v>0.1588935678623358</v>
       </c>
       <c r="K13">
-        <v>1.914099553541007</v>
+        <v>0.7218796460117289</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.093750393967809</v>
+        <v>4.945644573967542</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.609075082302354</v>
+        <v>0.6094342428811501</v>
       </c>
       <c r="C14">
-        <v>0.3374064605266085</v>
+        <v>0.1280261067344384</v>
       </c>
       <c r="D14">
-        <v>0.8261422249013606</v>
+        <v>0.7175781243932704</v>
       </c>
       <c r="E14">
-        <v>0.3750789669795793</v>
+        <v>0.2968783133360731</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008017032148937277</v>
+        <v>0.00248927317523819</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5036559554413671</v>
+        <v>0.9502602455345794</v>
       </c>
       <c r="J14">
-        <v>0.2269199432498397</v>
+        <v>0.1580426378660604</v>
       </c>
       <c r="K14">
-        <v>1.879568316632032</v>
+        <v>0.7123004000476669</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.071680306717639</v>
+        <v>4.946147592835757</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.591046139712432</v>
+        <v>0.6043790947363448</v>
       </c>
       <c r="C15">
-        <v>0.3335732431003748</v>
+        <v>0.1269962116517434</v>
       </c>
       <c r="D15">
-        <v>0.8180300297678116</v>
+        <v>0.7159068567263205</v>
       </c>
       <c r="E15">
-        <v>0.3712686721774503</v>
+        <v>0.2960752610097828</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008022680281851297</v>
+        <v>0.002489596555450855</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5027974162335269</v>
+        <v>0.9507459919702654</v>
       </c>
       <c r="J15">
-        <v>0.2245200169141697</v>
+        <v>0.1575230048543119</v>
       </c>
       <c r="K15">
-        <v>1.858443836081761</v>
+        <v>0.7064352229577651</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.058330173414959</v>
+        <v>4.94650576703927</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.488035903055504</v>
+        <v>0.5754401976520853</v>
       </c>
       <c r="C16">
-        <v>0.3116961400279763</v>
+        <v>0.1211020075614613</v>
       </c>
       <c r="D16">
-        <v>0.7719338646899416</v>
+        <v>0.7064312443167182</v>
       </c>
       <c r="E16">
-        <v>0.349617931357102</v>
+        <v>0.2915169651549832</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000805525176895579</v>
+        <v>0.002491478468469466</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.498318651055861</v>
+        <v>0.9536727700525063</v>
       </c>
       <c r="J16">
-        <v>0.2108839637186009</v>
+        <v>0.1545695004569723</v>
       </c>
       <c r="K16">
-        <v>1.737776349390316</v>
+        <v>0.6728612479742537</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.984326751798164</v>
+        <v>4.949325267566934</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.425095749463935</v>
+        <v>0.5577143971493683</v>
       </c>
       <c r="C17">
-        <v>0.2983494177367163</v>
+        <v>0.117493027697094</v>
       </c>
       <c r="D17">
-        <v>0.7439876642801551</v>
+        <v>0.7007091096990621</v>
       </c>
       <c r="E17">
-        <v>0.3364922154344612</v>
+        <v>0.2887595753682248</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008075421844939743</v>
+        <v>0.00249265867349302</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4959510336543289</v>
+        <v>0.9555959225973751</v>
       </c>
       <c r="J17">
-        <v>0.2026175323739068</v>
+        <v>0.1527792962569947</v>
       </c>
       <c r="K17">
-        <v>1.664072094321767</v>
+        <v>0.652298125407782</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.941074327900708</v>
+        <v>4.951738928695448</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.388979613795755</v>
+        <v>0.5475291701259266</v>
       </c>
       <c r="C18">
-        <v>0.2906978069605657</v>
+        <v>0.1154198002774365</v>
       </c>
       <c r="D18">
-        <v>0.7280293073505675</v>
+        <v>0.6974512973398532</v>
       </c>
       <c r="E18">
-        <v>0.3289968931386937</v>
+        <v>0.2871879246056821</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008087094813917515</v>
+        <v>0.002493346967579536</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4947236074631718</v>
+        <v>0.9567489565829632</v>
       </c>
       <c r="J18">
-        <v>0.1978971080118441</v>
+        <v>0.1517575795941752</v>
       </c>
       <c r="K18">
-        <v>1.621787768522722</v>
+        <v>0.6404832121396851</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.916952683758609</v>
+        <v>4.953378418276174</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.376765265453258</v>
+        <v>0.544082391777863</v>
       </c>
       <c r="C19">
-        <v>0.2881112082199877</v>
+        <v>0.114718282897087</v>
       </c>
       <c r="D19">
-        <v>0.7226453254386058</v>
+        <v>0.6963539980486075</v>
       </c>
       <c r="E19">
-        <v>0.3264681274936692</v>
+        <v>0.2866582516062053</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008091059610332716</v>
+        <v>0.00249358164088191</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4943306143366684</v>
+        <v>0.9571474041771424</v>
       </c>
       <c r="J19">
-        <v>0.1963045341192782</v>
+        <v>0.1514130108868841</v>
       </c>
       <c r="K19">
-        <v>1.607488752550097</v>
+        <v>0.6364850399465354</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.90891234183502</v>
+        <v>4.953976653792324</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.431786830313939</v>
+        <v>0.5596002884411462</v>
       </c>
       <c r="C20">
-        <v>0.29976755623602</v>
+        <v>0.1178769449788319</v>
       </c>
       <c r="D20">
-        <v>0.7469504805040685</v>
+        <v>0.7013147835872644</v>
       </c>
       <c r="E20">
-        <v>0.3378837858576276</v>
+        <v>0.289051621504683</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008073267341032783</v>
+        <v>0.002492532058708363</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.496189048136138</v>
+        <v>0.9553863463566188</v>
       </c>
       <c r="J20">
-        <v>0.2034939210283255</v>
+        <v>0.1529690424797536</v>
       </c>
       <c r="K20">
-        <v>1.67190660458968</v>
+        <v>0.6544858200752515</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.945599656674517</v>
+        <v>4.951455987131851</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.617726159419846</v>
+        <v>0.6118588507835341</v>
       </c>
       <c r="C21">
-        <v>0.3392462585767078</v>
+        <v>0.1285201051334752</v>
       </c>
       <c r="D21">
-        <v>0.8300394160200142</v>
+        <v>0.7183813416962721</v>
       </c>
       <c r="E21">
-        <v>0.3769094914508671</v>
+        <v>0.2972641711767778</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008014327240936518</v>
+        <v>0.002489118613440364</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5040756505787627</v>
+        <v>0.9500298504210889</v>
       </c>
       <c r="J21">
-        <v>0.2280729217800541</v>
+        <v>0.1582922460512606</v>
       </c>
       <c r="K21">
-        <v>1.889705313849618</v>
+        <v>0.7151135601321528</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.078127528088885</v>
+        <v>4.945989410584986</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.740177300689851</v>
+        <v>0.6461001240931807</v>
       </c>
       <c r="C22">
-        <v>0.3653191100340791</v>
+        <v>0.1354984621241613</v>
       </c>
       <c r="D22">
-        <v>0.8855155341653642</v>
+        <v>0.72983234788137</v>
       </c>
       <c r="E22">
-        <v>0.4029681901564288</v>
+        <v>0.3027590642418616</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007976392515617671</v>
+        <v>0.002486971599042342</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5105418225610521</v>
+        <v>0.9469472456289978</v>
       </c>
       <c r="J22">
-        <v>0.2444877276608963</v>
+        <v>0.1618422500051366</v>
       </c>
       <c r="K22">
-        <v>2.033226804526976</v>
+        <v>0.7548446098431612</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.172191190614768</v>
+        <v>4.944656883147729</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.674729217492199</v>
+        <v>0.6278170902564</v>
       </c>
       <c r="C23">
-        <v>0.3513762682482309</v>
+        <v>0.1317719470093834</v>
       </c>
       <c r="D23">
-        <v>0.8557922687826647</v>
+        <v>0.7236935753567764</v>
       </c>
       <c r="E23">
-        <v>0.3890059867365565</v>
+        <v>0.2998146715395222</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007996588015543596</v>
+        <v>0.00248810984962514</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5069648039815462</v>
+        <v>0.9485541953680681</v>
       </c>
       <c r="J23">
-        <v>0.2356923543066785</v>
+        <v>0.1599410469224551</v>
       </c>
       <c r="K23">
-        <v>1.956508138663651</v>
+        <v>0.7336297528378566</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.121269546519244</v>
+        <v>4.945162946951427</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.42876157956664</v>
+        <v>0.5587476595956389</v>
       </c>
       <c r="C24">
-        <v>0.2991263490638403</v>
+        <v>0.1177033709168143</v>
       </c>
       <c r="D24">
-        <v>0.7456106555486031</v>
+        <v>0.7010408589939345</v>
       </c>
       <c r="E24">
-        <v>0.337254499309978</v>
+        <v>0.2889195450554141</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008074241152206119</v>
+        <v>0.002492589270665905</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4960810264334867</v>
+        <v>0.9554809481666737</v>
       </c>
       <c r="J24">
-        <v>0.2030976063656027</v>
+        <v>0.1528832348669056</v>
       </c>
       <c r="K24">
-        <v>1.668364346838928</v>
+        <v>0.6534967411631101</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.943551443519084</v>
+        <v>4.951583120545763</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.166627259533044</v>
+        <v>0.484636245422962</v>
       </c>
       <c r="C25">
-        <v>0.2437017756487307</v>
+        <v>0.1026262716961952</v>
       </c>
       <c r="D25">
-        <v>0.6311098995910243</v>
+        <v>0.6778836663577295</v>
       </c>
       <c r="E25">
-        <v>0.2834718215922365</v>
+        <v>0.2777151184420035</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008160768926921637</v>
+        <v>0.002497783461363605</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4894220081141469</v>
+        <v>0.9647447898083072</v>
       </c>
       <c r="J25">
-        <v>0.1692242589540172</v>
+        <v>0.1455745388420553</v>
       </c>
       <c r="K25">
-        <v>1.361596168279874</v>
+        <v>0.5675381560945425</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.780408986341115</v>
+        <v>4.968110786634924</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_104/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_104/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4304097817472439</v>
+        <v>0.9755055144130722</v>
       </c>
       <c r="C2">
-        <v>0.09160879547007994</v>
+        <v>0.2034609051510472</v>
       </c>
       <c r="D2">
-        <v>0.6619293646000415</v>
+        <v>0.5498365394650477</v>
       </c>
       <c r="E2">
-        <v>0.2699344019209917</v>
+        <v>0.2452821889561037</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002501922895753041</v>
+        <v>0.0008227123260990677</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9731041415514596</v>
+        <v>0.4883350286876649</v>
       </c>
       <c r="J2">
-        <v>0.1404529117855091</v>
+        <v>0.1451621938367822</v>
       </c>
       <c r="K2">
-        <v>0.5046618618806065</v>
+        <v>1.138138113657618</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.988518476323748</v>
+        <v>2.681390152056252</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3938766318304943</v>
+        <v>0.8467780392274449</v>
       </c>
       <c r="C3">
-        <v>0.0841942546234975</v>
+        <v>0.1764386221205569</v>
       </c>
       <c r="D3">
-        <v>0.6518000325876869</v>
+        <v>0.4963320977046521</v>
       </c>
       <c r="E3">
-        <v>0.2649531102901932</v>
+        <v>0.2201264514716925</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002504926366483988</v>
+        <v>0.0008273862414484578</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9797275938363192</v>
+        <v>0.4897297659471711</v>
       </c>
       <c r="J3">
-        <v>0.1371430818120984</v>
+        <v>0.1293018706279199</v>
       </c>
       <c r="K3">
-        <v>0.4623117716852505</v>
+        <v>0.987730823805407</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.007478707090172</v>
+        <v>2.625896144648067</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3715538297486205</v>
+        <v>0.7680191616765342</v>
       </c>
       <c r="C4">
-        <v>0.07966748471220342</v>
+        <v>0.1599385658176828</v>
       </c>
       <c r="D4">
-        <v>0.6459174939957109</v>
+        <v>0.4641618095095907</v>
       </c>
       <c r="E4">
-        <v>0.2620383396620625</v>
+        <v>0.204992357878119</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002506868784855129</v>
+        <v>0.0008303470402935377</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9842666384750558</v>
+        <v>0.4915619124815791</v>
       </c>
       <c r="J4">
-        <v>0.1351900985987129</v>
+        <v>0.1197534585072688</v>
       </c>
       <c r="K4">
-        <v>0.4364395291334517</v>
+        <v>0.8957482005245083</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.021647956366991</v>
+        <v>2.597080831725322</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3624849130641792</v>
+        <v>0.7359795989916904</v>
       </c>
       <c r="C5">
-        <v>0.0778293269259791</v>
+        <v>0.1532335053968268</v>
       </c>
       <c r="D5">
-        <v>0.6436051109912739</v>
+        <v>0.4512104893976243</v>
       </c>
       <c r="E5">
-        <v>0.2608867114640745</v>
+        <v>0.1988970982654052</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002507685123758067</v>
+        <v>0.0008315769785758324</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9862350214723676</v>
+        <v>0.4925433408643691</v>
       </c>
       <c r="J5">
-        <v>0.1344141646554107</v>
+        <v>0.1159059713358843</v>
       </c>
       <c r="K5">
-        <v>0.4259297850132953</v>
+        <v>0.8583381137484594</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.028057347850762</v>
+        <v>2.586595324733963</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.360980719800807</v>
+        <v>0.7306623697671739</v>
       </c>
       <c r="C6">
-        <v>0.07752449867093958</v>
+        <v>0.152121155227178</v>
       </c>
       <c r="D6">
-        <v>0.6432262656077512</v>
+        <v>0.4490691274838809</v>
       </c>
       <c r="E6">
-        <v>0.2606976691631075</v>
+        <v>0.1978891552018354</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002507822175736469</v>
+        <v>0.0008317826359292458</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9865690366022797</v>
+        <v>0.4927201909043184</v>
       </c>
       <c r="J6">
-        <v>0.1342865244243256</v>
+        <v>0.1152696128240649</v>
       </c>
       <c r="K6">
-        <v>0.4241866821832332</v>
+        <v>0.852130109243717</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.029159985438696</v>
+        <v>2.584928293085255</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3714314099493379</v>
+        <v>0.7675868603076594</v>
       </c>
       <c r="C7">
-        <v>0.07964266813225152</v>
+        <v>0.1598480681030594</v>
       </c>
       <c r="D7">
-        <v>0.6458859649338251</v>
+        <v>0.4639865191259389</v>
       </c>
       <c r="E7">
-        <v>0.2620226619530186</v>
+        <v>0.2049098716576339</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002506879693858781</v>
+        <v>0.0008303635322876332</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9842927043028382</v>
+        <v>0.491574211136701</v>
       </c>
       <c r="J7">
-        <v>0.135179553427939</v>
+        <v>0.1197013988923317</v>
       </c>
       <c r="K7">
-        <v>0.4362976551376505</v>
+        <v>0.8952434013124559</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.021731823706887</v>
+        <v>2.59693441467536</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4177908620065125</v>
+        <v>0.9310526400918775</v>
       </c>
       <c r="C8">
-        <v>0.08904693868323932</v>
+        <v>0.1941219493844955</v>
       </c>
       <c r="D8">
-        <v>0.6583668876826607</v>
+        <v>0.5312386095197041</v>
       </c>
       <c r="E8">
-        <v>0.268187020837523</v>
+        <v>0.2365398632983826</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002502938141145274</v>
+        <v>0.0008243053194904892</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9752898638479159</v>
+        <v>0.488606877423102</v>
       </c>
       <c r="J8">
-        <v>0.139295223673173</v>
+        <v>0.139651544508034</v>
       </c>
       <c r="K8">
-        <v>0.4900326667066111</v>
+        <v>1.08618945489593</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.994531188641957</v>
+        <v>2.661124018614032</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5095481846159089</v>
+        <v>1.254580942396956</v>
       </c>
       <c r="C9">
-        <v>0.1076919841284507</v>
+        <v>0.2622685155801321</v>
       </c>
       <c r="D9">
-        <v>0.6855137895918233</v>
+        <v>0.6691638349130358</v>
       </c>
       <c r="E9">
-        <v>0.2814163662761686</v>
+        <v>0.3013477870007435</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002495985080678752</v>
+        <v>0.0008131228021219253</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9613850768520322</v>
+        <v>0.4910372405507175</v>
       </c>
       <c r="J9">
-        <v>0.1479960157967</v>
+        <v>0.1804837273958952</v>
       </c>
       <c r="K9">
-        <v>0.5964293871240613</v>
+        <v>1.464489557959013</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.961262368460268</v>
+        <v>2.83186697608329</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5774642032066311</v>
+        <v>1.495229932020465</v>
       </c>
       <c r="C10">
-        <v>0.1215141631748224</v>
+        <v>0.3132226472516777</v>
       </c>
       <c r="D10">
-        <v>0.7070887049854377</v>
+        <v>0.7751388481546257</v>
       </c>
       <c r="E10">
-        <v>0.2918335436431079</v>
+        <v>0.3511232456976145</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002491345080763991</v>
+        <v>0.0008052959763467142</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9534596805762874</v>
+        <v>0.4986073961914954</v>
       </c>
       <c r="J10">
-        <v>0.154774854308954</v>
+        <v>0.2118320076508695</v>
       </c>
       <c r="K10">
-        <v>0.6752093183136196</v>
+        <v>1.746201899495361</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.949083903274925</v>
+        <v>2.989366935800291</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6084674284220171</v>
+        <v>1.605626153559086</v>
       </c>
       <c r="C11">
-        <v>0.1278291295677718</v>
+        <v>0.3366730692161752</v>
       </c>
       <c r="D11">
-        <v>0.7172581332750667</v>
+        <v>0.8245893606779759</v>
       </c>
       <c r="E11">
-        <v>0.296724576167442</v>
+        <v>0.374349584008975</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002489334904307751</v>
+        <v>0.0008018111472056257</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9503525808960589</v>
+        <v>0.5034900298698872</v>
       </c>
       <c r="J11">
-        <v>0.1579431740546937</v>
+        <v>0.2264605354511957</v>
       </c>
       <c r="K11">
-        <v>0.7111786567213016</v>
+        <v>1.875527094065149</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.946213117703991</v>
+        <v>3.069117430427667</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6202226907077488</v>
+        <v>1.647587994383343</v>
       </c>
       <c r="C12">
-        <v>0.1302243239365168</v>
+        <v>0.3455991391865609</v>
       </c>
       <c r="D12">
-        <v>0.7211600387744852</v>
+        <v>0.8435145151709946</v>
       </c>
       <c r="E12">
-        <v>0.2985985819411283</v>
+        <v>0.3832388781520351</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002488588088363201</v>
+        <v>0.0008005016396960686</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9492477253980596</v>
+        <v>0.5055625357324729</v>
       </c>
       <c r="J12">
-        <v>0.1591551249500895</v>
+        <v>0.2320596550437131</v>
       </c>
       <c r="K12">
-        <v>0.7248179172146649</v>
+        <v>1.924698974224412</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.945510311106545</v>
+        <v>3.100585843720154</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6176903248359338</v>
+        <v>1.638543360175447</v>
       </c>
       <c r="C13">
-        <v>0.1297083054640211</v>
+        <v>0.3436745918509416</v>
       </c>
       <c r="D13">
-        <v>0.7203174280816427</v>
+        <v>0.8394294308931762</v>
       </c>
       <c r="E13">
-        <v>0.2981940083853161</v>
+        <v>0.381320059273051</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002488748289622698</v>
+        <v>0.0008007832280418907</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9494824838185991</v>
+        <v>0.5051059617508997</v>
       </c>
       <c r="J13">
-        <v>0.1588935678623358</v>
+        <v>0.2308510203531995</v>
       </c>
       <c r="K13">
-        <v>0.7218796460117289</v>
+        <v>1.914099553540979</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.945644573967542</v>
+        <v>3.093750393967838</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6094342428811501</v>
+        <v>1.609075082302439</v>
       </c>
       <c r="C14">
-        <v>0.1280261067344384</v>
+        <v>0.3374064605265232</v>
       </c>
       <c r="D14">
-        <v>0.7175781243932704</v>
+        <v>0.8261422249013322</v>
       </c>
       <c r="E14">
-        <v>0.2968783133360731</v>
+        <v>0.3750789669795864</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.00248927317523819</v>
+        <v>0.0008017032149214778</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9502602455345794</v>
+        <v>0.5036559554413742</v>
       </c>
       <c r="J14">
-        <v>0.1580426378660604</v>
+        <v>0.2269199432498823</v>
       </c>
       <c r="K14">
-        <v>0.7123004000476669</v>
+        <v>1.87956831663206</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.946147592835757</v>
+        <v>3.071680306717639</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6043790947363448</v>
+        <v>1.591046139712631</v>
       </c>
       <c r="C15">
-        <v>0.1269962116517434</v>
+        <v>0.3335732431008012</v>
       </c>
       <c r="D15">
-        <v>0.7159068567263205</v>
+        <v>0.8180300297679821</v>
       </c>
       <c r="E15">
-        <v>0.2960752610097828</v>
+        <v>0.3712686721774503</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002489596555450855</v>
+        <v>0.0008022680281833261</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9507459919702654</v>
+        <v>0.5027974162335269</v>
       </c>
       <c r="J15">
-        <v>0.1575230048543119</v>
+        <v>0.2245200169141839</v>
       </c>
       <c r="K15">
-        <v>0.7064352229577651</v>
+        <v>1.858443836081932</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.94650576703927</v>
+        <v>3.058330173415044</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5754401976520853</v>
+        <v>1.488035903055533</v>
       </c>
       <c r="C16">
-        <v>0.1211020075614613</v>
+        <v>0.3116961400280616</v>
       </c>
       <c r="D16">
-        <v>0.7064312443167182</v>
+        <v>0.7719338646900553</v>
       </c>
       <c r="E16">
-        <v>0.2915169651549832</v>
+        <v>0.349617931357102</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002491478468469466</v>
+        <v>0.000805525176835713</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9536727700525063</v>
+        <v>0.4983186510558681</v>
       </c>
       <c r="J16">
-        <v>0.1545695004569723</v>
+        <v>0.2108839637186861</v>
       </c>
       <c r="K16">
-        <v>0.6728612479742537</v>
+        <v>1.737776349390316</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.949325267566934</v>
+        <v>2.984326751798136</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5577143971493683</v>
+        <v>1.425095749463907</v>
       </c>
       <c r="C17">
-        <v>0.117493027697094</v>
+        <v>0.2983494177367447</v>
       </c>
       <c r="D17">
-        <v>0.7007091096990621</v>
+        <v>0.7439876642802403</v>
       </c>
       <c r="E17">
-        <v>0.2887595753682248</v>
+        <v>0.3364922154344896</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.00249265867349302</v>
+        <v>0.0008075421845571526</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9555959225973751</v>
+        <v>0.4959510336543431</v>
       </c>
       <c r="J17">
-        <v>0.1527792962569947</v>
+        <v>0.2026175323739068</v>
       </c>
       <c r="K17">
-        <v>0.652298125407782</v>
+        <v>1.664072094321824</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.951738928695448</v>
+        <v>2.941074327900765</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5475291701259266</v>
+        <v>1.388979613795584</v>
       </c>
       <c r="C18">
-        <v>0.1154198002774365</v>
+        <v>0.2906978069603383</v>
       </c>
       <c r="D18">
-        <v>0.6974512973398532</v>
+        <v>0.7280293073505959</v>
       </c>
       <c r="E18">
-        <v>0.2871879246056821</v>
+        <v>0.3289968931386866</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002493346967579536</v>
+        <v>0.0008087094812983531</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9567489565829632</v>
+        <v>0.4947236074631718</v>
       </c>
       <c r="J18">
-        <v>0.1517575795941752</v>
+        <v>0.1978971080119152</v>
       </c>
       <c r="K18">
-        <v>0.6404832121396851</v>
+        <v>1.621787768522779</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.953378418276174</v>
+        <v>2.916952683758666</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.544082391777863</v>
+        <v>1.376765265453287</v>
       </c>
       <c r="C19">
-        <v>0.114718282897087</v>
+        <v>0.2881112082197319</v>
       </c>
       <c r="D19">
-        <v>0.6963539980486075</v>
+        <v>0.7226453254386911</v>
       </c>
       <c r="E19">
-        <v>0.2866582516062053</v>
+        <v>0.3264681274936549</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00249358164088191</v>
+        <v>0.0008091059610325729</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9571474041771424</v>
+        <v>0.4943306143366684</v>
       </c>
       <c r="J19">
-        <v>0.1514130108868841</v>
+        <v>0.196304534119335</v>
       </c>
       <c r="K19">
-        <v>0.6364850399465354</v>
+        <v>1.607488752550154</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.953976653792324</v>
+        <v>2.908912341834991</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5596002884411462</v>
+        <v>1.431786830313769</v>
       </c>
       <c r="C20">
-        <v>0.1178769449788319</v>
+        <v>0.2997675562358211</v>
       </c>
       <c r="D20">
-        <v>0.7013147835872644</v>
+        <v>0.7469504805039549</v>
       </c>
       <c r="E20">
-        <v>0.289051621504683</v>
+        <v>0.3378837858576205</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002492532058708363</v>
+        <v>0.0008073267341017136</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9553863463566188</v>
+        <v>0.4961890481361451</v>
       </c>
       <c r="J20">
-        <v>0.1529690424797536</v>
+        <v>0.203493921028354</v>
       </c>
       <c r="K20">
-        <v>0.6544858200752515</v>
+        <v>1.671906604589736</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.951455987131851</v>
+        <v>2.945599656674517</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6118588507835341</v>
+        <v>1.617726159419874</v>
       </c>
       <c r="C21">
-        <v>0.1285201051334752</v>
+        <v>0.3392462585765941</v>
       </c>
       <c r="D21">
-        <v>0.7183813416962721</v>
+        <v>0.8300394160200426</v>
       </c>
       <c r="E21">
-        <v>0.2972641711767778</v>
+        <v>0.3769094914508813</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002489118613440364</v>
+        <v>0.0008014327240004274</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9500298504210889</v>
+        <v>0.504075650578784</v>
       </c>
       <c r="J21">
-        <v>0.1582922460512606</v>
+        <v>0.2280729217800115</v>
       </c>
       <c r="K21">
-        <v>0.7151135601321528</v>
+        <v>1.889705313849561</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.945989410584986</v>
+        <v>3.078127528088913</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6461001240931807</v>
+        <v>1.740177300689851</v>
       </c>
       <c r="C22">
-        <v>0.1354984621241613</v>
+        <v>0.3653191100337949</v>
       </c>
       <c r="D22">
-        <v>0.72983234788137</v>
+        <v>0.8855155341655916</v>
       </c>
       <c r="E22">
-        <v>0.3027590642418616</v>
+        <v>0.4029681901564217</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002486971599042342</v>
+        <v>0.0007976392515555564</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9469472456289978</v>
+        <v>0.5105418225610308</v>
       </c>
       <c r="J22">
-        <v>0.1618422500051366</v>
+        <v>0.2444877276608679</v>
       </c>
       <c r="K22">
-        <v>0.7548446098431612</v>
+        <v>2.033226804526976</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.944656883147729</v>
+        <v>3.17219119061474</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6278170902564</v>
+        <v>1.674729217492285</v>
       </c>
       <c r="C23">
-        <v>0.1317719470093834</v>
+        <v>0.3513762682486004</v>
       </c>
       <c r="D23">
-        <v>0.7236935753567764</v>
+        <v>0.8557922687828068</v>
       </c>
       <c r="E23">
-        <v>0.2998146715395222</v>
+        <v>0.3890059867365281</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.00248810984962514</v>
+        <v>0.0007996588016492279</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9485541953680681</v>
+        <v>0.5069648039815462</v>
       </c>
       <c r="J23">
-        <v>0.1599410469224551</v>
+        <v>0.2356923543067779</v>
       </c>
       <c r="K23">
-        <v>0.7336297528378566</v>
+        <v>1.956508138663622</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.945162946951427</v>
+        <v>3.121269546519244</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5587476595956389</v>
+        <v>1.428761579566526</v>
       </c>
       <c r="C24">
-        <v>0.1177033709168143</v>
+        <v>0.2991263490636129</v>
       </c>
       <c r="D24">
-        <v>0.7010408589939345</v>
+        <v>0.7456106555485178</v>
       </c>
       <c r="E24">
-        <v>0.2889195450554141</v>
+        <v>0.3372544993100206</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002492589270665905</v>
+        <v>0.0008074241152803953</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9554809481666737</v>
+        <v>0.4960810264334796</v>
       </c>
       <c r="J24">
-        <v>0.1528832348669056</v>
+        <v>0.2030976063655032</v>
       </c>
       <c r="K24">
-        <v>0.6534967411631101</v>
+        <v>1.668364346838899</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.951583120545763</v>
+        <v>2.943551443519169</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.484636245422962</v>
+        <v>1.166627259532959</v>
       </c>
       <c r="C25">
-        <v>0.1026262716961952</v>
+        <v>0.2437017756488444</v>
       </c>
       <c r="D25">
-        <v>0.6778836663577295</v>
+        <v>0.631109899590939</v>
       </c>
       <c r="E25">
-        <v>0.2777151184420035</v>
+        <v>0.2834718215922436</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002497783461363605</v>
+        <v>0.0008160768926647486</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9647447898083072</v>
+        <v>0.489422008114154</v>
       </c>
       <c r="J25">
-        <v>0.1455745388420553</v>
+        <v>0.1692242589538893</v>
       </c>
       <c r="K25">
-        <v>0.5675381560945425</v>
+        <v>1.361596168279846</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.968110786634924</v>
+        <v>2.780408986341115</v>
       </c>
     </row>
   </sheetData>
